--- a/biology/Médecine/Royal_Berkshire_Hospital/Royal_Berkshire_Hospital.xlsx
+++ b/biology/Médecine/Royal_Berkshire_Hospital/Royal_Berkshire_Hospital.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le Royal Berkshire Hospital est un hôpital du National Health Service situé à Reading, dans le comté du Berkshire en Angleterre.
@@ -513,7 +525,9 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L'hôpital a été fondé en 1839 sur des terres données par Henry Addington, un homme d'État britannique qui fut Premier ministre.
 L'aviateur Douglas Bader a eu ses deux jambes amputées dans cet hôpital en 1931 après un accident à Woodley.
@@ -547,7 +561,9 @@
           <t>Personnalités nées au Royal Berkshire Hospital</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Catherine Middleton (née en 1982), duchesse de Cambridge, épouse du prince William, duc de Cambridge ;
 Philippa Middleton (née en 1983), sœur de Catherine Middleton, socialite ;
@@ -579,7 +595,9 @@
           <t>Lien externe</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Sur les autres projets Wikimedia :
